--- a/_data/BTCUSDT_2h.xlsx
+++ b/_data/BTCUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1726 @@
         <v>525.8235</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>59396</v>
+      </c>
+      <c r="C1169">
+        <v>59944.07</v>
+      </c>
+      <c r="D1169">
+        <v>58901</v>
+      </c>
+      <c r="E1169">
+        <v>59653</v>
+      </c>
+      <c r="F1169">
+        <v>3197.18053</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>59653</v>
+      </c>
+      <c r="C1170">
+        <v>59830</v>
+      </c>
+      <c r="D1170">
+        <v>57946.01</v>
+      </c>
+      <c r="E1170">
+        <v>58094.99</v>
+      </c>
+      <c r="F1170">
+        <v>7168.80631</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>58095</v>
+      </c>
+      <c r="C1171">
+        <v>58811.04</v>
+      </c>
+      <c r="D1171">
+        <v>57701.1</v>
+      </c>
+      <c r="E1171">
+        <v>58630.91</v>
+      </c>
+      <c r="F1171">
+        <v>3656.78457</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>58630.91</v>
+      </c>
+      <c r="C1172">
+        <v>59371</v>
+      </c>
+      <c r="D1172">
+        <v>58625</v>
+      </c>
+      <c r="E1172">
+        <v>58700.02</v>
+      </c>
+      <c r="F1172">
+        <v>2760.80144</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>58700.02</v>
+      </c>
+      <c r="C1173">
+        <v>59155</v>
+      </c>
+      <c r="D1173">
+        <v>58700</v>
+      </c>
+      <c r="E1173">
+        <v>59055.99</v>
+      </c>
+      <c r="F1173">
+        <v>931.33975</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>59056</v>
+      </c>
+      <c r="C1174">
+        <v>59298.89</v>
+      </c>
+      <c r="D1174">
+        <v>59051.1</v>
+      </c>
+      <c r="E1174">
+        <v>59123.99</v>
+      </c>
+      <c r="F1174">
+        <v>739.81849</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>59123.99</v>
+      </c>
+      <c r="C1175">
+        <v>59462.38</v>
+      </c>
+      <c r="D1175">
+        <v>59070.4</v>
+      </c>
+      <c r="E1175">
+        <v>59285</v>
+      </c>
+      <c r="F1175">
+        <v>1204.08057</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>59285</v>
+      </c>
+      <c r="C1176">
+        <v>59293</v>
+      </c>
+      <c r="D1176">
+        <v>59119.01</v>
+      </c>
+      <c r="E1176">
+        <v>59232.01</v>
+      </c>
+      <c r="F1176">
+        <v>443.72435</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>59232.01</v>
+      </c>
+      <c r="C1177">
+        <v>59350</v>
+      </c>
+      <c r="D1177">
+        <v>59211.88</v>
+      </c>
+      <c r="E1177">
+        <v>59212</v>
+      </c>
+      <c r="F1177">
+        <v>569.14131</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>59212.01</v>
+      </c>
+      <c r="C1178">
+        <v>59264.95</v>
+      </c>
+      <c r="D1178">
+        <v>59043.12</v>
+      </c>
+      <c r="E1178">
+        <v>59095</v>
+      </c>
+      <c r="F1178">
+        <v>661.5293</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>59095.01</v>
+      </c>
+      <c r="C1179">
+        <v>59130</v>
+      </c>
+      <c r="D1179">
+        <v>58831.88</v>
+      </c>
+      <c r="E1179">
+        <v>58905.01</v>
+      </c>
+      <c r="F1179">
+        <v>838.19728</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>58905.01</v>
+      </c>
+      <c r="C1180">
+        <v>59188.9</v>
+      </c>
+      <c r="D1180">
+        <v>58872</v>
+      </c>
+      <c r="E1180">
+        <v>59120.99</v>
+      </c>
+      <c r="F1180">
+        <v>565.8905999999999</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>59120.99</v>
+      </c>
+      <c r="C1181">
+        <v>59244.04</v>
+      </c>
+      <c r="D1181">
+        <v>58929.96</v>
+      </c>
+      <c r="E1181">
+        <v>58954.99</v>
+      </c>
+      <c r="F1181">
+        <v>759.70145</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>58955</v>
+      </c>
+      <c r="C1182">
+        <v>59170.11</v>
+      </c>
+      <c r="D1182">
+        <v>58892.15</v>
+      </c>
+      <c r="E1182">
+        <v>59006.54</v>
+      </c>
+      <c r="F1182">
+        <v>1015.28456</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>59006.54</v>
+      </c>
+      <c r="C1183">
+        <v>59034.84</v>
+      </c>
+      <c r="D1183">
+        <v>58744</v>
+      </c>
+      <c r="E1183">
+        <v>59013.16</v>
+      </c>
+      <c r="F1183">
+        <v>823.44694</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>59013.17</v>
+      </c>
+      <c r="C1184">
+        <v>59140.01</v>
+      </c>
+      <c r="D1184">
+        <v>58823.73</v>
+      </c>
+      <c r="E1184">
+        <v>58856</v>
+      </c>
+      <c r="F1184">
+        <v>813.82096</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>58856</v>
+      </c>
+      <c r="C1185">
+        <v>58978</v>
+      </c>
+      <c r="D1185">
+        <v>58763.29</v>
+      </c>
+      <c r="E1185">
+        <v>58977.24</v>
+      </c>
+      <c r="F1185">
+        <v>489.72911</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>59061</v>
+      </c>
+      <c r="C1186">
+        <v>59141.72</v>
+      </c>
+      <c r="D1186">
+        <v>58927</v>
+      </c>
+      <c r="E1186">
+        <v>58973.99</v>
+      </c>
+      <c r="F1186">
+        <v>486.925</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>58974</v>
+      </c>
+      <c r="C1187">
+        <v>59076.59</v>
+      </c>
+      <c r="D1187">
+        <v>58819.78</v>
+      </c>
+      <c r="E1187">
+        <v>58828.01</v>
+      </c>
+      <c r="F1187">
+        <v>619.34243</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>58828</v>
+      </c>
+      <c r="C1188">
+        <v>58851.65</v>
+      </c>
+      <c r="D1188">
+        <v>58276.01</v>
+      </c>
+      <c r="E1188">
+        <v>58524.21</v>
+      </c>
+      <c r="F1188">
+        <v>1694.6596</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>58524.21</v>
+      </c>
+      <c r="C1189">
+        <v>58599.98</v>
+      </c>
+      <c r="D1189">
+        <v>57777</v>
+      </c>
+      <c r="E1189">
+        <v>57986</v>
+      </c>
+      <c r="F1189">
+        <v>2387.96086</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>57986</v>
+      </c>
+      <c r="C1190">
+        <v>58500</v>
+      </c>
+      <c r="D1190">
+        <v>57952</v>
+      </c>
+      <c r="E1190">
+        <v>58478.64</v>
+      </c>
+      <c r="F1190">
+        <v>978.20107</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>58478.64</v>
+      </c>
+      <c r="C1191">
+        <v>58504.81</v>
+      </c>
+      <c r="D1191">
+        <v>58126.98</v>
+      </c>
+      <c r="E1191">
+        <v>58205</v>
+      </c>
+      <c r="F1191">
+        <v>867.5123</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>58205</v>
+      </c>
+      <c r="C1192">
+        <v>58250.21</v>
+      </c>
+      <c r="D1192">
+        <v>57840</v>
+      </c>
+      <c r="E1192">
+        <v>58240.52</v>
+      </c>
+      <c r="F1192">
+        <v>1653.08503</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>58240.51</v>
+      </c>
+      <c r="C1193">
+        <v>58320.15</v>
+      </c>
+      <c r="D1193">
+        <v>57710</v>
+      </c>
+      <c r="E1193">
+        <v>58175.01</v>
+      </c>
+      <c r="F1193">
+        <v>1876.62869</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>58175</v>
+      </c>
+      <c r="C1194">
+        <v>58360.38</v>
+      </c>
+      <c r="D1194">
+        <v>57201</v>
+      </c>
+      <c r="E1194">
+        <v>58217</v>
+      </c>
+      <c r="F1194">
+        <v>4034.76764</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>58217</v>
+      </c>
+      <c r="C1195">
+        <v>58350</v>
+      </c>
+      <c r="D1195">
+        <v>57864.3</v>
+      </c>
+      <c r="E1195">
+        <v>58127.98</v>
+      </c>
+      <c r="F1195">
+        <v>1093.96986</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>58127.98</v>
+      </c>
+      <c r="C1196">
+        <v>58788.93</v>
+      </c>
+      <c r="D1196">
+        <v>58122</v>
+      </c>
+      <c r="E1196">
+        <v>58514</v>
+      </c>
+      <c r="F1196">
+        <v>1574.77443</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>58514.01</v>
+      </c>
+      <c r="C1197">
+        <v>58656.77</v>
+      </c>
+      <c r="D1197">
+        <v>58093.57</v>
+      </c>
+      <c r="E1197">
+        <v>58351.11</v>
+      </c>
+      <c r="F1197">
+        <v>672.35295</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>58351.11</v>
+      </c>
+      <c r="C1198">
+        <v>58414</v>
+      </c>
+      <c r="D1198">
+        <v>57205</v>
+      </c>
+      <c r="E1198">
+        <v>57301.86</v>
+      </c>
+      <c r="F1198">
+        <v>3251.90255</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>57301.77</v>
+      </c>
+      <c r="C1199">
+        <v>57650</v>
+      </c>
+      <c r="D1199">
+        <v>57128</v>
+      </c>
+      <c r="E1199">
+        <v>57423.23</v>
+      </c>
+      <c r="F1199">
+        <v>2324.26121</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>57423.23</v>
+      </c>
+      <c r="C1200">
+        <v>57767.14</v>
+      </c>
+      <c r="D1200">
+        <v>57294</v>
+      </c>
+      <c r="E1200">
+        <v>57742.01</v>
+      </c>
+      <c r="F1200">
+        <v>2280.61887</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>57742</v>
+      </c>
+      <c r="C1201">
+        <v>57987.99</v>
+      </c>
+      <c r="D1201">
+        <v>57445.91</v>
+      </c>
+      <c r="E1201">
+        <v>57785.01</v>
+      </c>
+      <c r="F1201">
+        <v>1466.25823</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>57785</v>
+      </c>
+      <c r="C1202">
+        <v>57883</v>
+      </c>
+      <c r="D1202">
+        <v>57362.06</v>
+      </c>
+      <c r="E1202">
+        <v>57547.99</v>
+      </c>
+      <c r="F1202">
+        <v>1150.34761</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>57548</v>
+      </c>
+      <c r="C1203">
+        <v>58462</v>
+      </c>
+      <c r="D1203">
+        <v>57520.12</v>
+      </c>
+      <c r="E1203">
+        <v>58402.35</v>
+      </c>
+      <c r="F1203">
+        <v>3060.67337</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>58402</v>
+      </c>
+      <c r="C1204">
+        <v>58680.76</v>
+      </c>
+      <c r="D1204">
+        <v>58293</v>
+      </c>
+      <c r="E1204">
+        <v>58395</v>
+      </c>
+      <c r="F1204">
+        <v>1976.1934</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>58422.01</v>
+      </c>
+      <c r="C1205">
+        <v>58509</v>
+      </c>
+      <c r="D1205">
+        <v>58256.1</v>
+      </c>
+      <c r="E1205">
+        <v>58299.01</v>
+      </c>
+      <c r="F1205">
+        <v>490.97599</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>58181.21</v>
+      </c>
+      <c r="C1206">
+        <v>58808</v>
+      </c>
+      <c r="D1206">
+        <v>58104</v>
+      </c>
+      <c r="E1206">
+        <v>58537.99</v>
+      </c>
+      <c r="F1206">
+        <v>2687.18068</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>58537.99</v>
+      </c>
+      <c r="C1207">
+        <v>58653</v>
+      </c>
+      <c r="D1207">
+        <v>58293.12</v>
+      </c>
+      <c r="E1207">
+        <v>58514.01</v>
+      </c>
+      <c r="F1207">
+        <v>1289.04739</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>58514.01</v>
+      </c>
+      <c r="C1208">
+        <v>58666.64</v>
+      </c>
+      <c r="D1208">
+        <v>58318.33</v>
+      </c>
+      <c r="E1208">
+        <v>58439.99</v>
+      </c>
+      <c r="F1208">
+        <v>1567.42501</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>58440.03</v>
+      </c>
+      <c r="C1209">
+        <v>59274.32</v>
+      </c>
+      <c r="D1209">
+        <v>58384.61</v>
+      </c>
+      <c r="E1209">
+        <v>59047</v>
+      </c>
+      <c r="F1209">
+        <v>2518.24767</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>59047</v>
+      </c>
+      <c r="C1210">
+        <v>59425.69</v>
+      </c>
+      <c r="D1210">
+        <v>59008.81</v>
+      </c>
+      <c r="E1210">
+        <v>59132.13</v>
+      </c>
+      <c r="F1210">
+        <v>1202.58826</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>59132.12</v>
+      </c>
+      <c r="C1211">
+        <v>59406.57</v>
+      </c>
+      <c r="D1211">
+        <v>59021.62</v>
+      </c>
+      <c r="E1211">
+        <v>59388.01</v>
+      </c>
+      <c r="F1211">
+        <v>1021.47358</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>59388.01</v>
+      </c>
+      <c r="C1212">
+        <v>59809.65</v>
+      </c>
+      <c r="D1212">
+        <v>59041.86</v>
+      </c>
+      <c r="E1212">
+        <v>59110.99</v>
+      </c>
+      <c r="F1212">
+        <v>2167.26459</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>59111</v>
+      </c>
+      <c r="C1213">
+        <v>59259</v>
+      </c>
+      <c r="D1213">
+        <v>58988</v>
+      </c>
+      <c r="E1213">
+        <v>59186</v>
+      </c>
+      <c r="F1213">
+        <v>1500.57225</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>59186</v>
+      </c>
+      <c r="C1214">
+        <v>59186</v>
+      </c>
+      <c r="D1214">
+        <v>58872</v>
+      </c>
+      <c r="E1214">
+        <v>59112</v>
+      </c>
+      <c r="F1214">
+        <v>1285.97813</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>59112.01</v>
+      </c>
+      <c r="C1215">
+        <v>59136.58</v>
+      </c>
+      <c r="D1215">
+        <v>58717</v>
+      </c>
+      <c r="E1215">
+        <v>58874</v>
+      </c>
+      <c r="F1215">
+        <v>1474.92487</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>58874.01</v>
+      </c>
+      <c r="C1216">
+        <v>59195.63</v>
+      </c>
+      <c r="D1216">
+        <v>58836.87</v>
+      </c>
+      <c r="E1216">
+        <v>59072</v>
+      </c>
+      <c r="F1216">
+        <v>959.13208</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>59072.01</v>
+      </c>
+      <c r="C1217">
+        <v>59350</v>
+      </c>
+      <c r="D1217">
+        <v>58198.28</v>
+      </c>
+      <c r="E1217">
+        <v>58398.99</v>
+      </c>
+      <c r="F1217">
+        <v>3189.32654</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>58398.99</v>
+      </c>
+      <c r="C1218">
+        <v>58398.99</v>
+      </c>
+      <c r="D1218">
+        <v>57568</v>
+      </c>
+      <c r="E1218">
+        <v>57725</v>
+      </c>
+      <c r="F1218">
+        <v>5000.73762</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>57725.01</v>
+      </c>
+      <c r="C1219">
+        <v>58100</v>
+      </c>
+      <c r="D1219">
+        <v>57655.81</v>
+      </c>
+      <c r="E1219">
+        <v>57698</v>
+      </c>
+      <c r="F1219">
+        <v>1998.27283</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>57698</v>
+      </c>
+      <c r="C1220">
+        <v>58251.09</v>
+      </c>
+      <c r="D1220">
+        <v>57589.01</v>
+      </c>
+      <c r="E1220">
+        <v>58046</v>
+      </c>
+      <c r="F1220">
+        <v>1748.13867</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>58045.99</v>
+      </c>
+      <c r="C1221">
+        <v>58247</v>
+      </c>
+      <c r="D1221">
+        <v>57957.5</v>
+      </c>
+      <c r="E1221">
+        <v>58134.61</v>
+      </c>
+      <c r="F1221">
+        <v>1058.85182</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>58134.61</v>
+      </c>
+      <c r="C1222">
+        <v>58183.68</v>
+      </c>
+      <c r="D1222">
+        <v>57415</v>
+      </c>
+      <c r="E1222">
+        <v>57487.73</v>
+      </c>
+      <c r="F1222">
+        <v>1423.51149</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>57487.74</v>
+      </c>
+      <c r="C1223">
+        <v>57943.53</v>
+      </c>
+      <c r="D1223">
+        <v>55606</v>
+      </c>
+      <c r="E1223">
+        <v>56784.01</v>
+      </c>
+      <c r="F1223">
+        <v>7984.00121</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>56784.01</v>
+      </c>
+      <c r="C1224">
+        <v>56850</v>
+      </c>
+      <c r="D1224">
+        <v>56520.35</v>
+      </c>
+      <c r="E1224">
+        <v>56653.98</v>
+      </c>
+      <c r="F1224">
+        <v>2024.54469</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>56653.99</v>
+      </c>
+      <c r="C1225">
+        <v>56728</v>
+      </c>
+      <c r="D1225">
+        <v>56201</v>
+      </c>
+      <c r="E1225">
+        <v>56252.01</v>
+      </c>
+      <c r="F1225">
+        <v>2038.47964</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>56252.01</v>
+      </c>
+      <c r="C1226">
+        <v>56881</v>
+      </c>
+      <c r="D1226">
+        <v>56209.99</v>
+      </c>
+      <c r="E1226">
+        <v>56746</v>
+      </c>
+      <c r="F1226">
+        <v>3531.62437</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>56746</v>
+      </c>
+      <c r="C1227">
+        <v>56909.94</v>
+      </c>
+      <c r="D1227">
+        <v>56570</v>
+      </c>
+      <c r="E1227">
+        <v>56596.99</v>
+      </c>
+      <c r="F1227">
+        <v>1593.91144</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>56596.99</v>
+      </c>
+      <c r="C1228">
+        <v>56710.47</v>
+      </c>
+      <c r="D1228">
+        <v>56453</v>
+      </c>
+      <c r="E1228">
+        <v>56573</v>
+      </c>
+      <c r="F1228">
+        <v>1418.9413</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>56573</v>
+      </c>
+      <c r="C1229">
+        <v>56763.99</v>
+      </c>
+      <c r="D1229">
+        <v>56319.41</v>
+      </c>
+      <c r="E1229">
+        <v>56490</v>
+      </c>
+      <c r="F1229">
+        <v>2222.30349</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>56489.99</v>
+      </c>
+      <c r="C1230">
+        <v>58181.43</v>
+      </c>
+      <c r="D1230">
+        <v>56187.61</v>
+      </c>
+      <c r="E1230">
+        <v>58134</v>
+      </c>
+      <c r="F1230">
+        <v>7681.63854</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>58134</v>
+      </c>
+      <c r="C1231">
+        <v>58519</v>
+      </c>
+      <c r="D1231">
+        <v>57821.79</v>
+      </c>
+      <c r="E1231">
+        <v>57878</v>
+      </c>
+      <c r="F1231">
+        <v>3729.58543</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>57878.01</v>
+      </c>
+      <c r="C1232">
+        <v>57997.99</v>
+      </c>
+      <c r="D1232">
+        <v>57646</v>
+      </c>
+      <c r="E1232">
+        <v>57981.82</v>
+      </c>
+      <c r="F1232">
+        <v>1305.42907</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6">
+      <c r="A1233" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1233">
+        <v>58058</v>
+      </c>
+      <c r="C1233">
+        <v>58181</v>
+      </c>
+      <c r="D1233">
+        <v>57792.46</v>
+      </c>
+      <c r="E1233">
+        <v>58100</v>
+      </c>
+      <c r="F1233">
+        <v>899.18925</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6">
+      <c r="A1234" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1234">
+        <v>58100</v>
+      </c>
+      <c r="C1234">
+        <v>58390</v>
+      </c>
+      <c r="D1234">
+        <v>57889.81</v>
+      </c>
+      <c r="E1234">
+        <v>57970.9</v>
+      </c>
+      <c r="F1234">
+        <v>881.45506</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6">
+      <c r="A1235" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1235">
+        <v>57970.9</v>
+      </c>
+      <c r="C1235">
+        <v>58327.07</v>
+      </c>
+      <c r="D1235">
+        <v>57955.55</v>
+      </c>
+      <c r="E1235">
+        <v>58021.99</v>
+      </c>
+      <c r="F1235">
+        <v>1434.63167</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6">
+      <c r="A1236" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1236">
+        <v>58021.99</v>
+      </c>
+      <c r="C1236">
+        <v>58063.99</v>
+      </c>
+      <c r="D1236">
+        <v>56891.07</v>
+      </c>
+      <c r="E1236">
+        <v>57135.42</v>
+      </c>
+      <c r="F1236">
+        <v>3283.39709</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6">
+      <c r="A1237" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1237">
+        <v>57135.42</v>
+      </c>
+      <c r="C1237">
+        <v>57291.1</v>
+      </c>
+      <c r="D1237">
+        <v>57029</v>
+      </c>
+      <c r="E1237">
+        <v>57194.99</v>
+      </c>
+      <c r="F1237">
+        <v>1221.97927</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6">
+      <c r="A1238" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1238">
+        <v>57195</v>
+      </c>
+      <c r="C1238">
+        <v>57245.03</v>
+      </c>
+      <c r="D1238">
+        <v>56541.68</v>
+      </c>
+      <c r="E1238">
+        <v>57155.1</v>
+      </c>
+      <c r="F1238">
+        <v>2115.58608</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6">
+      <c r="A1239" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1239">
+        <v>57155.1</v>
+      </c>
+      <c r="C1239">
+        <v>57232</v>
+      </c>
+      <c r="D1239">
+        <v>56623</v>
+      </c>
+      <c r="E1239">
+        <v>56797</v>
+      </c>
+      <c r="F1239">
+        <v>1641.48351</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6">
+      <c r="A1240" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1240">
+        <v>56797</v>
+      </c>
+      <c r="C1240">
+        <v>56863.8</v>
+      </c>
+      <c r="D1240">
+        <v>56654.31</v>
+      </c>
+      <c r="E1240">
+        <v>56698.01</v>
+      </c>
+      <c r="F1240">
+        <v>1183.49458</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6">
+      <c r="A1241" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1241">
+        <v>56698.01</v>
+      </c>
+      <c r="C1241">
+        <v>57158.81</v>
+      </c>
+      <c r="D1241">
+        <v>56318</v>
+      </c>
+      <c r="E1241">
+        <v>57028.62</v>
+      </c>
+      <c r="F1241">
+        <v>3866.69294</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6">
+      <c r="A1242" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1242">
+        <v>57028.62</v>
+      </c>
+      <c r="C1242">
+        <v>57350</v>
+      </c>
+      <c r="D1242">
+        <v>55817.51</v>
+      </c>
+      <c r="E1242">
+        <v>55976.01</v>
+      </c>
+      <c r="F1242">
+        <v>6333.39654</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6">
+      <c r="A1243" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1243">
+        <v>55976.01</v>
+      </c>
+      <c r="C1243">
+        <v>56614</v>
+      </c>
+      <c r="D1243">
+        <v>55960</v>
+      </c>
+      <c r="E1243">
+        <v>56602.99</v>
+      </c>
+      <c r="F1243">
+        <v>2116.40306</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6">
+      <c r="A1244" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1244">
+        <v>56603</v>
+      </c>
+      <c r="C1244">
+        <v>56710</v>
+      </c>
+      <c r="D1244">
+        <v>55800</v>
+      </c>
+      <c r="E1244">
+        <v>56060.01</v>
+      </c>
+      <c r="F1244">
+        <v>2190.1806</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6">
+      <c r="A1245" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1245">
+        <v>56060</v>
+      </c>
+      <c r="C1245">
+        <v>56259.97</v>
+      </c>
+      <c r="D1245">
+        <v>55643.65</v>
+      </c>
+      <c r="E1245">
+        <v>56150.6</v>
+      </c>
+      <c r="F1245">
+        <v>1566.15371</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6">
+      <c r="A1246" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1246">
+        <v>56150.59</v>
+      </c>
+      <c r="C1246">
+        <v>56227.5</v>
+      </c>
+      <c r="D1246">
+        <v>55783</v>
+      </c>
+      <c r="E1246">
+        <v>56180</v>
+      </c>
+      <c r="F1246">
+        <v>853.51508</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6">
+      <c r="A1247" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1247">
+        <v>56180</v>
+      </c>
+      <c r="C1247">
+        <v>56615.49</v>
+      </c>
+      <c r="D1247">
+        <v>55989</v>
+      </c>
+      <c r="E1247">
+        <v>56558.99</v>
+      </c>
+      <c r="F1247">
+        <v>1509.31096</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6">
+      <c r="A1248" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1248">
+        <v>56559</v>
+      </c>
+      <c r="C1248">
+        <v>56858.88</v>
+      </c>
+      <c r="D1248">
+        <v>56499.87</v>
+      </c>
+      <c r="E1248">
+        <v>56588</v>
+      </c>
+      <c r="F1248">
+        <v>1579.84228</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6">
+      <c r="A1249" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1249">
+        <v>56588.01</v>
+      </c>
+      <c r="C1249">
+        <v>56747.91</v>
+      </c>
+      <c r="D1249">
+        <v>56295.49</v>
+      </c>
+      <c r="E1249">
+        <v>56491.01</v>
+      </c>
+      <c r="F1249">
+        <v>1278.26707</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6">
+      <c r="A1250" s="2">
+        <v>45541.25</v>
+      </c>
+      <c r="B1250">
+        <v>56491.01</v>
+      </c>
+      <c r="C1250">
+        <v>56518</v>
+      </c>
+      <c r="D1250">
+        <v>55280</v>
+      </c>
+      <c r="E1250">
+        <v>55804.29</v>
+      </c>
+      <c r="F1250">
+        <v>4665.58565</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6">
+      <c r="A1251" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1251">
+        <v>55804.28</v>
+      </c>
+      <c r="C1251">
+        <v>55938.42</v>
+      </c>
+      <c r="D1251">
+        <v>55639</v>
+      </c>
+      <c r="E1251">
+        <v>55889.86</v>
+      </c>
+      <c r="F1251">
+        <v>2299.07084</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6">
+      <c r="A1252" s="2">
+        <v>45541.41666666666</v>
+      </c>
+      <c r="B1252">
+        <v>55889.86</v>
+      </c>
+      <c r="C1252">
+        <v>56262.11</v>
+      </c>
+      <c r="D1252">
+        <v>55826.26</v>
+      </c>
+      <c r="E1252">
+        <v>55999.09</v>
+      </c>
+      <c r="F1252">
+        <v>1817.19018</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6">
+      <c r="A1253" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1253">
+        <v>55999.09</v>
+      </c>
+      <c r="C1253">
+        <v>56089</v>
+      </c>
+      <c r="D1253">
+        <v>55846</v>
+      </c>
+      <c r="E1253">
+        <v>56004</v>
+      </c>
+      <c r="F1253">
+        <v>504.90418</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6">
+      <c r="A1254" s="2">
+        <v>45541.58333333334</v>
+      </c>
+      <c r="B1254">
+        <v>55896.01</v>
+      </c>
+      <c r="C1254">
+        <v>55931.35</v>
+      </c>
+      <c r="D1254">
+        <v>55666.42</v>
+      </c>
+      <c r="E1254">
+        <v>55929</v>
+      </c>
+      <c r="F1254">
+        <v>351.46012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
